--- a/data/trans_camb/P1804-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Clase-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,1</t>
+          <t>4,94; 9,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,33</t>
+          <t>5,9; 10,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,45</t>
+          <t>9,38; 17,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,8</t>
+          <t>8,83; 13,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,44</t>
+          <t>7,98; 12,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,46</t>
+          <t>7,73; 11,39</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,44</t>
+          <t>2,86; 7,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,65</t>
+          <t>6,48; 12,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 14,05</t>
+          <t>7,44; 14,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,26</t>
+          <t>8,33; 14,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,87</t>
+          <t>5,68; 9,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,25</t>
+          <t>8,06; 12,3</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,36; 8,65</t>
+          <t>4,37; 8,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 8,13</t>
+          <t>1,35; 7,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 17,53</t>
+          <t>7,59; 18,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,58; 15,09</t>
+          <t>5,53; 14,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 10,11</t>
+          <t>5,88; 10,02</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,37</t>
+          <t>1,99; 8,35</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,55</t>
+          <t>5,69; 8,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,52</t>
+          <t>2,92; 5,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1353,12 +1353,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,47</t>
+          <t>8,26; 12,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,69</t>
+          <t>3,13; 8,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,58</t>
+          <t>7,05; 9,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,47</t>
+          <t>3,68; 6,49</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1554,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,77</t>
+          <t>4,21; 7,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,25</t>
+          <t>3,98; 8,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,14</t>
+          <t>7,77; 12,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,22</t>
+          <t>5,22; 9,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,65</t>
+          <t>6,51; 9,41</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,33; 8,54</t>
+          <t>5,21; 8,26</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,77</t>
+          <t>3,3; 8,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,39</t>
+          <t>0,33; 6,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,48</t>
+          <t>6,61; 10,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,13</t>
+          <t>3,76; 6,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,7</t>
+          <t>6,41; 9,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,34</t>
+          <t>3,1; 5,2</t>
         </is>
       </c>
     </row>
@@ -1986,12 +1986,12 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,18</t>
+          <t>5,56; 7,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>4,4; 6,58</t>
+          <t>4,2; 6,52</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,89; 11,03</t>
+          <t>8,95; 11,03</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,42</t>
+          <t>6,2; 8,52</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2016,12 +2016,12 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,91</t>
+          <t>7,55; 8,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,57; 7,27</t>
+          <t>5,52; 7,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1804-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1804-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
